--- a/biology/Médecine/Christophe_André/Christophe_André.xlsx
+++ b/biology/Médecine/Christophe_André/Christophe_André.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Christophe_Andr%C3%A9</t>
+          <t>Christophe_André</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Christophe André, né le 12 juin 1956 à Montpellier[1], est un psychiatre et psychothérapeute français.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Christophe André, né le 12 juin 1956 à Montpellier, est un psychiatre et psychothérapeute français.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Christophe_Andr%C3%A9</t>
+          <t>Christophe_André</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,14 +523,16 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Né d'un père marin reconverti en représentant de commerce en papeterie et d'une mère institutrice, Christophe André grandit à Toulouse. Marié, il est père de trois filles nées entre 1993 et 1998[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Né d'un père marin reconverti en représentant de commerce en papeterie et d'une mère institutrice, Christophe André grandit à Toulouse. Marié, il est père de trois filles nées entre 1993 et 1998,.
 Il soutient sa thèse de doctorat en médecine à Toulouse en 1980, puis son mémoire de psychiatrie en 1982. De 1992 à 2018, il exerce à l’hôpital Sainte-Anne à Paris, au sein du service hospitalo-universitaire de santé mentale et de thérapeutique. Il est spécialisé dans le soin des troubles anxieux et dépressifs, et tout particulièrement dans le domaine de la prévention des rechutes.
-Christophe André est l’un des chefs de file des thérapies comportementales et cognitives en France, et a été l’un des premiers à y introduire l’usage de la méditation de pleine conscience en psychothérapie[3].
-Chargé d’enseignement à l’université Paris-Nanterre, il est l’auteur de nombreux livres de psychologie à destination du grand public[évasif]. Il a également conseillé des entreprises et fait des conférences[2].
+Christophe André est l’un des chefs de file des thérapies comportementales et cognitives en France, et a été l’un des premiers à y introduire l’usage de la méditation de pleine conscience en psychothérapie.
+Chargé d’enseignement à l’université Paris-Nanterre, il est l’auteur de nombreux livres de psychologie à destination du grand public[évasif]. Il a également conseillé des entreprises et fait des conférences.
 Son ouvrage Imparfaits, libres et heureux est couronné du prix Psychologies-Fnac 2007.
-Depuis 2015, il est chroniqueur régulier sur France Inter dans l'émission Grand bien vous fasse, d'Ali Rebeihi[4].
+Depuis 2015, il est chroniqueur régulier sur France Inter dans l'émission Grand bien vous fasse, d'Ali Rebeihi.
 Il a été lauréat en 2016 du Prix Jean Bernard, de la Fondation pour la recherche médicale.
 </t>
         </is>
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Christophe_Andr%C3%A9</t>
+          <t>Christophe_André</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,7 +562,9 @@
           <t>Principales publications à destination du grand public</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Les Thérapies cognitives, Paris, Morisset, 1995
 Dépression et Psychothérapie, Neuilly-sur-Seine, Ardix médical &amp; Paris, PIL, 1996
@@ -570,9 +586,43 @@
 La Vie intérieure, Paris, L'Iconoclaste, 2018, 195 p. (ISBN 979-10-95438-58-8)
 Le Temps de méditer, Paris, L'Iconoclaste, 2019  (ISBN 978-2-37880-079-6 et 2-37880-079-7) (OCLC 1108753604)
 Consolations, L'Iconoclaste, 2022  (ISBN 9782378802745).
-S'estimer et s'oublier, Paris, éditions Odile Jacob, 2024  (ISBN 978-2-415-00751-5).
-En collaboration
-La Peur des autres : trac, timidité et phobie sociale (avec Patrick Légeron), Paris, éditions Odile Jacob, 1995 (3e éd., revue et corrigée, en 2000)
+S'estimer et s'oublier, Paris, éditions Odile Jacob, 2024  (ISBN 978-2-415-00751-5).</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Christophe_André</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Christophe_Andr%C3%A9</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Principales publications à destination du grand public</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>En collaboration</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>La Peur des autres : trac, timidité et phobie sociale (avec Patrick Légeron), Paris, éditions Odile Jacob, 1995 (3e éd., revue et corrigée, en 2000)
 Chers Patients : petit traité de communication à l'usage des médecins (avec François Lelord et Patrick Légeron), Levallois-Perret, Le Quotidien du médecin, 1996
 Comment gérer les personnalités difficiles (avec François Lelord), Paris, éditions Odile Jacob, 1996
 La Gestion du stress (avec Patrick Légeron et François Lelord), Neuilly-Plaisance, Bernet-Danilo, 1998
@@ -581,9 +631,43 @@
 La Force des émotions : amour, colère, joie (avec François Lelord), Paris, éditions Odile Jacob, 2001
 Psychologie positive : le bonheur dans tous ses états (avec Thomas d'Ansembourg, Isabelle Filliozat, etc.), Bernex-Genève, éd. Jouvence, 2011
 Christophe André, Matthieu Ricard et Alexandre Jollien, Trois Amis en quête de sagesse, Paris, L'Iconoclaste et Allary Éditions, 2016, 389 p. (ISBN 979-10-95438-01-4) (réédition Paris, éditions J'ai lu coll. « Bien être », 2017, 478 p.  (ISBN 978-2-290-16652-9))
- À nous la liberté, avec Matthieu Ricard et Alexandre Jollien, L'Iconoclaste-Allary Éditions, 2019
-Ouvrages collectifs
-Phobies et Obsessions, Vélizy, Doin, 1998
+ À nous la liberté, avec Matthieu Ricard et Alexandre Jollien, L'Iconoclaste-Allary Éditions, 2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Christophe_André</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Christophe_Andr%C3%A9</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Principales publications à destination du grand public</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Ouvrages collectifs</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Phobies et Obsessions, Vélizy, Doin, 1998
 Guide de psychologie de la vie quotidienne, Paris, éditions Odile Jacob, 2008
 Secrets de psys : ce qu'il faut savoir pour aller bien, Paris, éditions Odile Jacob, 2010
 Conseils de psys : 100 réponses d'experts pour mieux vivre ses petits travers, Paris, L'Express, 2012 (réédité par les éditions Odile Jacob en 2013)</t>
